--- a/output/google_maps_data_Tempat_Ibadah_Bantul.xlsx
+++ b/output/google_maps_data_Tempat_Ibadah_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,21 +506,20 @@
           <t>(0274) 367154</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="E2" t="n">
         <v>4.9</v>
       </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Hati+Kudus+Tuhan+Yesus,+Ganjuran/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff9cb334c87f:0xd0c9cb40ca1f9ff6!8m2!3d-7.926598!4d110.3188917!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOS1gyRjFVR1JCRUFF4AEA-gEECAAQQw!16s%2Fm%2F0k3mnsx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Hati+Kudus+Tuhan+Yesus,+Ganjuran/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff9cb334c87f:0xd0c9cb40ca1f9ff6!8m2!3d-7.926598!4d110.3188917!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBD2NhdGhvbGljX2NodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOS1gyRjFVR1JCRUFF4AEA-gEECAAQQw!16s%2Fm%2F0k3mnsx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
@@ -552,25 +546,24 @@
           <t>(0274) 367033</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.890911</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.890911</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.333635</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKJ+Bantul/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f864487b5b:0xb9b01c1cff0d3e7!8m2!3d-7.8909113!4d110.3336348!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMk56VnBhV2QzUlJBQuABAPoBBAgAEC4!16s%2Fg%2F11r9k4_0p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKJ+Bantul/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f864487b5b:0xb9b01c1cff0d3e7!8m2!3d-7.8909113!4d110.3336348!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMk56VnBhV2QzUlJBQuABAPoBBAgAEC4!16s%2Fg%2F11r9k4_0p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -597,25 +590,24 @@
           <t>0815-6854-628</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>-7.883098</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.883098</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.320701</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/GKBI+Krakitan+(Ringinharjo)/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff52f566439f:0x11ca576d050791cb!8m2!3d-7.8830985!4d110.3207008!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBmNodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdGJHODNTM0ZuUlJBQuABAPoBBAgAED4!16s%2Fg%2F119w4psml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -630,25 +622,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>-7.880283</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.880283</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.336676</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Yakobus,+Klodran/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5531e238c6ab:0xff5efb54878d80e0!8m2!3d-7.8802834!4d110.3366762!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSk5uUTNWakozUlJBQuABAPoBBAgAEEU!16s%2Fg%2F112yfj7lh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -663,25 +654,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>-7.87949</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.87949</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.331839</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Agung+Manunggal+Bantul/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a56001058b46d:0x494a6283745abcf0!8m2!3d-7.8794905!4d110.331839!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWGRrMVlRekYzUlJBQuABAPoBBAgAEDg!16s%2Fg%2F1yg4dfh91?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Agung+Manunggal+Bantul/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a56001058b46d:0x494a6283745abcf0!8m2!3d-7.8794905!4d110.331839!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWGRrMVlRekYzUlJBQuABAPoBBAgAEDg!16s%2Fg%2F1yg4dfh91?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -700,25 +690,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.885978</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.885978</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.345617</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klembon+bantul+yogyakarta/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5572d795d69d:0x8f49e3c8bedb4e1c!8m2!3d-7.8859784!4d110.3456166!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnFiMkpJWjBaUkVBReABAPoBBAgAECw!16s%2Fg%2F11sv2jqf6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -737,25 +726,24 @@
           <t>(0274) 368006</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.8</v>
+        <v>-7.887583</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.887583</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.326476</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+JAMASBA+Bantul/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff56dd517f65:0xfe404f166e9e6dfc!8m2!3d-7.8875829!4d110.3264756!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMWVYWkxXbTUzUlJBQuABAPoBBAgAEDk!16s%2Fg%2F11b7ln8w58?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+JAMASBA+Bantul/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff56dd517f65:0xfe404f166e9e6dfc!8m2!3d-7.8875829!4d110.3264756!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMWVYWkxXbTUzUlJBQuABAPoBBAgAEDk!16s%2Fg%2F11b7ln8w58?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -774,25 +762,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>-7.926185</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.926185</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.319705</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Java's+Nationaal+Heilig+Hart+Monument+-+Candi+Hati+Kudus+Yesus/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7affb7450a49cf:0x5c38a0a4d1ee9ce7!8m2!3d-7.9261853!4d110.3197054!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBFXJlbGlnaW91c19kZXN0aW5hdGlvbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOa2NrOWZXVFJuUlJBQuABAPoBBAgAED8!16s%2Fg%2F11p736t_9_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Java's+Nationaal+Heilig+Hart+Monument+-+Candi+Hati+Kudus+Yesus/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7affb7450a49cf:0x5c38a0a4d1ee9ce7!8m2!3d-7.9261853!4d110.3197054!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBFXJlbGlnaW91c19kZXN0aW5hdGlvbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOa2NrOWZXVFJuUlJBQuABAPoBBAgAED8!16s%2Fg%2F11p736t_9_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -811,25 +798,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.887258</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.887258</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.33356</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KBIH+AROFAH+BANTUL/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a555a55cbbf15:0x6f61e267243922f6!8m2!3d-7.8872578!4d110.3335597!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11f5v6kl_r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -844,25 +830,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.873746</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.873746</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.340564</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Ar+Ridlo+Ngrukem+%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%84%EA%A6%82%EA%A6%AB%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%AD%EA%A6%BA%EA%A6%B4%EA%A6%94%EA%A6%BF%EA%A6%B8%EA%A6%8F%EA%A6%BA%EA%A6%A9%EA%A7%80/@-7.926598,110.2467939,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5605c5f7ef0d:0x7f1ca34915ebb786!8m2!3d-7.8737463!4d110.3405636!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdFowNVFjekYzUlJBQuABAPoBBAgAEDo!16s%2Fg%2F11bwyxtz92?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -877,25 +862,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>-7.864435</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.864435</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.319813</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Istikmal/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8a3459339d7:0xb10fa063a90c067f!8m2!3d-7.8644345!4d110.3198132!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11c14r7g15?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Istikmal/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8a3459339d7:0xb10fa063a90c067f!8m2!3d-7.8644345!4d110.3198132!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11c14r7g15?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -914,25 +898,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>-7.897225</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.897225</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.328349</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ponpes+mambaul+huda+pusat+bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff0021c29ceb:0xf4381c36d63c86c1!8m2!3d-7.8972253!4d110.3283493!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11vwm7jnnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -947,25 +930,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.873818</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.873818</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.335067</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pura+Karanggede+Sewon+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5603c3e728a7:0x84a71667478cf691!8m2!3d-7.8738182!4d110.335067!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBDGhpbmR1X3RlbXBsZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGJ6VkhSRGQzUlJBQuABAPoBBAgAEDw!16s%2Fg%2F11b6gp1gvl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pura+Karanggede+Sewon+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5603c3e728a7:0x84a71667478cf691!8m2!3d-7.8738182!4d110.335067!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBDGhpbmR1X3RlbXBsZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGJ6VkhSRGQzUlJBQuABAPoBBAgAEDw!16s%2Fg%2F11b6gp1gvl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -984,25 +966,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>-7.865521</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.865521</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.325648</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Jabbal+Rohmah/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8a6afdd23c1:0xb9d42f249cd11f96!8m2!3d-7.8655213!4d110.3256484!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11b807b017?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Jabbal+Rohmah/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8a6afdd23c1:0xb9d42f249cd11f96!8m2!3d-7.8655213!4d110.3256484!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11b807b017?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1021,25 +1002,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.886543</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.886543</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.312569</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Taman+Pendidikan+Al-Qur'An+(TPQ%2FMD)+Ar+Rois/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff4c6f0505d5:0x9faa3591cfa46c2a!8m2!3d-7.8865426!4d110.3125692!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXCaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkxNa3d0ZG5oQlJSQULgAQD6AQQIABBJ!16s%2Fg%2F1pzv50qkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1055,22 +1035,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-7.875773</v>
+      </c>
       <c r="G17" t="n">
-        <v>-7.875773</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.333253</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Musholla+An-Nur/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5744192eb27b:0xc0478788117bae69!8m2!3d-7.8757727!4d110.3332526!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11g0nfck97?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1085,25 +1064,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.885615</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.885615</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.33499</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al+Aman+Pedak+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f9362efcfb:0xe3a20e0caa83efae!8m2!3d-7.8856146!4d110.3349904!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU2RUUk1YMnhCUlJBQuABAPoBBAgAECI!16s%2Fg%2F11cjj0l0gk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1118,25 +1096,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>-7.878528</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.878528</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.32602</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Baitul+Muqaddimah(%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%A7%EA%A6%BB%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%90%EA%A6%A3%EA%A7%80%EA%A6%9D%EA%A6%B6%EA%A6%A9%EA%A6%83)/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8ab6dfd0e6b:0x49131c53d8b169af!8m2!3d-7.878528!4d110.3260203!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSd2MxbFhiV05CRUFF4AEA-gEECAAQOg!16s%2Fg%2F11cp1b9qx3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Baitul+Muqaddimah(%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%A7%EA%A6%BB%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%90%EA%A6%A3%EA%A7%80%EA%A6%9D%EA%A6%B6%EA%A6%A9%EA%A6%83)/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8ab6dfd0e6b:0x49131c53d8b169af!8m2!3d-7.878528!4d110.3260203!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSd2MxbFhiV05CRUFF4AEA-gEECAAQOg!16s%2Fg%2F11cp1b9qx3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1155,25 +1132,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>-7.893456</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.893456</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.332495</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Musholla+Al+-+Manar+Bejen+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f649869745:0x2d17bc3ce913fe18!8m2!3d-7.8934556!4d110.3324949!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11bwp1njv6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Musholla+Al+-+Manar+Bejen+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f649869745:0x2d17bc3ce913fe18!8m2!3d-7.8934556!4d110.3324949!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11bwp1njv6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1192,25 +1168,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>-7.884604</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.884604</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.334102</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Ziadatul+Huda/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76d37e9:0x7ee0bd160ff71678!8m2!3d-7.8846043!4d110.334102!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bc7qyk32?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Ziadatul+Huda/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76d37e9:0x7ee0bd160ff71678!8m2!3d-7.8846043!4d110.334102!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bc7qyk32?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1229,25 +1204,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>-7.872667</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.872667</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.336915</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Bakalan/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a560479cb307d:0xb646605a6a0c532f!8m2!3d-7.8726666!4d110.3369149!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGRsbzNjVTUzRUFF4AEA-gEECAAQLw!16s%2Fg%2F11cpg95h8s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Bakalan/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a560479cb307d:0xb646605a6a0c532f!8m2!3d-7.8726666!4d110.3369149!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGRsbzNjVTUzRUFF4AEA-gEECAAQLw!16s%2Fg%2F11cpg95h8s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1266,25 +1240,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.9</v>
+        <v>-7.886242</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.886242</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.322653</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+Al+Badawi/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff5176d06dd3:0xba7dfc9ff8dc21ba!8m2!3d-7.8862419!4d110.3226531!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11b87m4y89?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1299,25 +1272,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>-7.89337</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.89337</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.336924</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Arofah+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f12d42e8dd:0xb5eb8a88ee0320c1!8m2!3d-7.89337!4d110.336924!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSZk0xbFVWM1JuUlJBQuABAPoBBAgAEC4!16s%2Fg%2F11b6h_mxrx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Arofah+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f12d42e8dd:0xb5eb8a88ee0320c1!8m2!3d-7.89337!4d110.336924!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSZk0xbFVWM1JuUlJBQuABAPoBBAgAEC4!16s%2Fg%2F11b6h_mxrx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1340,25 +1312,24 @@
           <t>0857-8673-2900</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.9</v>
+        <v>-7.890781</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.890781</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.322591</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+AL-YASIR,+Karang+Ringinharjo+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff50a64dade3:0x1bb4c8035738759!8m2!3d-7.890781!4d110.3225912!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSaU9YWllSMDFCRUFF4AEA-gEECAAQGw!16s%2Fg%2F11cpgft_9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+AL-YASIR,+Karang+Ringinharjo+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff50a64dade3:0x1bb4c8035738759!8m2!3d-7.890781!4d110.3225912!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSaU9YWllSMDFCRUFF4AEA-gEECAAQGw!16s%2Fg%2F11cpgft_9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1377,25 +1348,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.7</v>
+        <v>-7.894349</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.894349</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.312725</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Iman+Gumuk/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff468613abdf:0xb822ecd878c85f95!8m2!3d-7.8943492!4d110.3127253!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSaWQzQjJMVXBuRUFF4AEA-gEECAAQIg!16s%2Fg%2F11c1q8htbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Iman+Gumuk/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff468613abdf:0xb822ecd878c85f95!8m2!3d-7.8943492!4d110.3127253!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSaWQzQjJMVXBuRUFF4AEA-gEECAAQIg!16s%2Fg%2F11c1q8htbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1418,25 +1388,24 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.8</v>
+        <v>-7.889671</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.889671</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.35515</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Ath-Tholibin+SMKN+1+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55c2afaa068f:0x79ef1c03b7d60d39!8m2!3d-7.8896712!4d110.3551501!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSR2MySjJhMjUzUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11c2pc6b16?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Ath-Tholibin+SMKN+1+Bantul/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55c2afaa068f:0x79ef1c03b7d60d39!8m2!3d-7.8896712!4d110.3551501!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSR2MySjJhMjUzUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11c2pc6b16?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1459,25 +1428,24 @@
           <t>0857-4342-9565</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.8</v>
+        <v>-7.892085</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.892085</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.319473</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Husnul+Khotimah+Bantulkarang/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff4fb2d63041:0xd05fb816310d4357!8m2!3d-7.8920849!4d110.319473!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2NIVnhiMmRSUlJBQuABAPoBBAgjECs!16s%2Fg%2F1pzt292pp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1492,25 +1460,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.8</v>
+        <v>-7.867865</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.867865</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.318198</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Kentholan/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8bb27de5941:0xf973c4b5de2b7e40!8m2!3d-7.8678654!4d110.318198!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONmJUWTJOVWRSRUFF4AEA-gEECAAQKA!16s%2Fg%2F11c6w0y0_g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Kentholan/@-7.8644345,110.2477154,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8bb27de5941:0xf973c4b5de2b7e40!8m2!3d-7.8678654!4d110.318198!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONmJUWTJOVWRSRUFF4AEA-gEECAAQKA!16s%2Fg%2F11c6w0y0_g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1529,25 +1496,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.8</v>
+        <v>-7.901754</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.901754</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.384122</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Baiturridwan%EA%A7%8B%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%A7%EA%A6%BB%EA%A6%A0%EA%A6%B8%EA%A6%82%EA%A6%AB%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%AE%EA%A6%A4%EA%A7%80/@-7.9017538,110.3120239,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a544bdc7910cb:0xe40624b587eed0ed!8m2!3d-7.9017538!4d110.3841217!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOV00xQjFTVUpSRUFF4AEA-gEECAAQPg!16s%2Fg%2F11btww1m47?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Baiturridwan%EA%A7%8B%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%A7%EA%A6%BB%EA%A6%A0%EA%A6%B8%EA%A6%82%EA%A6%AB%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%AE%EA%A6%A4%EA%A7%80/@-7.9017538,110.3120239,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a544bdc7910cb:0xe40624b587eed0ed!8m2!3d-7.9017538!4d110.3841217!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOV00xQjFTVUpSRUFF4AEA-gEECAAQPg!16s%2Fg%2F11btww1m47?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1570,25 +1536,24 @@
           <t>0813-2871-8721</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.8</v>
+        <v>-7.873248</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.873248</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.32016</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al+Hidayah/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8ae3408321b:0x26570619d870cd28!8m2!3d-7.8732481!4d110.3201604!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOb2FtRlhMVGhuUlJBQuABAPoBBAgAEBY!16s%2Fg%2F11c5rrjv42?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1603,25 +1568,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.8</v>
+        <v>-7.879812</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.879812</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.323934</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Sabilillah/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8acba425e4d:0xdf02b42f80495fca!8m2!3d-7.879812!4d110.323934!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdWRpMUlUM2hCUlJBQuABAPoBBAgAECg!16s%2Fg%2F11b6s317ml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Sabilillah/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8acba425e4d:0xdf02b42f80495fca!8m2!3d-7.879812!4d110.323934!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdWRpMUlUM2hCUlJBQuABAPoBBAgAECg!16s%2Fg%2F11b6s317ml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1640,25 +1604,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>-7.889568</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.889568</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.330401</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Muqorrobin/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff57e61992cf:0xe4773dbfb4c161c3!8m2!3d-7.8895681!4d110.3304012!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSb056VnFjVjluUlJBQuABAPoBBAgAEDM!16s%2Fg%2F1yg578244?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Muqorrobin/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff57e61992cf:0xe4773dbfb4c161c3!8m2!3d-7.8895681!4d110.3304012!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSb056VnFjVjluUlJBQuABAPoBBAgAEDM!16s%2Fg%2F1yg578244?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1677,25 +1640,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>-7.885038</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.885038</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.316549</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Cholil+Mansyuri/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff4fb2d63041:0x9353410b08742088!8m2!3d-7.8850381!4d110.3165494!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzs2969s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Cholil+Mansyuri/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff4fb2d63041:0x9353410b08742088!8m2!3d-7.8850381!4d110.3165494!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzs2969s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -1714,25 +1676,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.4</v>
+        <v>-7.881691</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.881691</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.323696</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Insan/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff5341a0df79:0xf8922609349334a1!8m2!3d-7.8816914!4d110.3236955!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11fy43wrgr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Insan/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff5341a0df79:0xf8922609349334a1!8m2!3d-7.8816914!4d110.3236955!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11fy43wrgr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1751,25 +1712,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>-7.880118</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.880118</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.33269</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TK+Al-Qur'an+(TKQ%2FTKA)+Miftahul+Iman/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55ffdf5fb96b:0xadc96b9941fa7959!8m2!3d-7.8801176!4d110.33269!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11b6d3krs0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TK+Al-Qur'an+(TKQ%2FTKA)+Miftahul+Iman/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55ffdf5fb96b:0xadc96b9941fa7959!8m2!3d-7.8801176!4d110.33269!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11b6d3krs0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -1788,25 +1748,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.9</v>
+        <v>-7.874872</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.874872</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.325717</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Aman/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76c8c8b:0xed1a4740a2dcea71!8m2!3d-7.8748718!4d110.3257172!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSRU9VbHFSSEpCUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1pzxhlbrn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Aman/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76c8c8b:0xed1a4740a2dcea71!8m2!3d-7.8748718!4d110.3257172!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSRU9VbHFSSEpCUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1pzxhlbrn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1825,25 +1784,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.7</v>
+        <v>-7.869426</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.869426</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.321485</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al-Mubarok/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8a572248359:0x4af64dda859ce3f5!8m2!3d-7.8694257!4d110.3214847!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGMwNUxWWHBSUlJBQuABAPoBBAgAEBg!16s%2Fg%2F11dym4v37_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1858,25 +1816,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>-7.879314</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.879314</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.316916</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Nurul+Amanah+Gemahan/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9bd4de6c1fd:0xeee0678049be851c!8m2!3d-7.8793138!4d110.3169162!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11rj5l57g9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Nurul+Amanah+Gemahan/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9bd4de6c1fd:0xeee0678049be851c!8m2!3d-7.8793138!4d110.3169162!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11rj5l57g9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1895,25 +1852,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.7</v>
+        <v>-7.859057</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.859057</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.331634</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MASJID+FADHLILLAH+1948+ROGOITAN/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a56201b203d75:0xbac5c6f9ac33e23b!8m2!3d-7.8590575!4d110.3316339!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSb2NEZGZiSGRSUlJBQuABAPoBBAgAECY!16s%2Fg%2F11c5p22vjc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MASJID+FADHLILLAH+1948+ROGOITAN/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a56201b203d75:0xbac5c6f9ac33e23b!8m2!3d-7.8590575!4d110.3316339!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSb2NEZGZiSGRSUlJBQuABAPoBBAgAECY!16s%2Fg%2F11c5p22vjc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1940,25 +1896,24 @@
           <t>0822-3708-4024</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.9</v>
+        <v>-7.84708</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.84708</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.34317</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Abdurrahman+bin+Auf+(MABA)/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a579aa51733b5:0x6d2eaa988e2c0286!8m2!3d-7.8470802!4d110.3431695!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMmMyUkhWWGhSUlJBQuABAPoBBAhJEEg!16s%2Fg%2F11h1m50msb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Abdurrahman+bin+Auf+(MABA)/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a579aa51733b5:0x6d2eaa988e2c0286!8m2!3d-7.8470802!4d110.3431695!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMmMyUkhWWGhSUlJBQuABAPoBBAhJEEg!16s%2Fg%2F11h1m50msb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1978,22 +1933,21 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-7.869528</v>
+      </c>
       <c r="G42" t="n">
-        <v>-7.869528</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.329982</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+(%D9%85%D8%B5%D9%84%D9%89+%D8%A7%D9%84%D8%AA%D8%AE%D9%8A%D9%84+%D9%88%D8%A7%D9%84%D8%A8%D8%AF%D8%B9%D8%A9)%E2%80%AD/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af90019085ba7:0x951159b450da0f57!8m2!3d-7.8695281!4d110.329982!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11wr94499z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2008,25 +1962,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>-7.871168</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.871168</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.34028</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Al+Irsyad/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5737aa02ffd9:0xb354b676f205ee69!8m2!3d-7.8711677!4d110.34028!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXpjMDkxV2xCM0VBReABAPoBBAgAEDI!16s%2Fg%2F11fm4h0pj5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Al+Irsyad/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5737aa02ffd9:0xb354b676f205ee69!8m2!3d-7.8711677!4d110.34028!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXCaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXpjMDkxV2xCM0VBReABAPoBBAgAEDI!16s%2Fg%2F11fm4h0pj5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2045,25 +1998,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.5</v>
+        <v>-7.867969</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.867969</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.311621</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Ihsanullah/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9018e00a45b:0xe86e01f7b48c7995!8m2!3d-7.8679691!4d110.3116205!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11h6gd0325?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Ihsanullah/@-7.8732481,110.2480626,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9018e00a45b:0xe86e01f7b48c7995!8m2!3d-7.8679691!4d110.3116205!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11h6gd0325?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2082,25 +2034,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.7</v>
+        <v>-7.920497</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.920497</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.3958</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam+Raja-Raja+Imogiri/@-7.9204974,110.3237021,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a54f951ef760f:0x99cd48194e507430!8m2!3d-7.9204974!4d110.3957999!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBnNocmluZeABAA!16s%2Fg%2F11c2kltgrc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam+Raja-Raja+Imogiri/@-7.9204974,110.3237021,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a54f951ef760f:0x99cd48194e507430!8m2!3d-7.9204974!4d110.3957999!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBnNocmluZeABAA!16s%2Fg%2F11c2kltgrc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>7 jam lalu</t>
         </is>
@@ -2119,25 +2070,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.6</v>
+        <v>-7.879961</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.879961</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.326717</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Jami'/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8ab36c4a965:0x8b75ceb27da9457c!8m2!3d-7.8799607!4d110.3267167!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObExUZzJWRTVCRUFF4AEA-gEECB8QFA!16s%2Fg%2F11df1vd1cy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Jami'/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8ab36c4a965:0x8b75ceb27da9457c!8m2!3d-7.8799607!4d110.3267167!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObExUZzJWRTVCRUFF4AEA-gEECB8QFA!16s%2Fg%2F11df1vd1cy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2164,25 +2114,24 @@
           <t>0816-1348-413</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.8</v>
+        <v>-7.8828</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.8828</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.332908</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Jami+Al-Ikhlas+Melikan+Kidul+Bantul/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55ff096d79cd:0x5fb2da53c5ebbcf9!8m2!3d-7.8827996!4d110.3329082!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSS1h6ZE1OMHQzRUFF4AEA-gEECAAQQw!16s%2Fg%2F11fy54qxx4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Jami+Al-Ikhlas+Melikan+Kidul+Bantul/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55ff096d79cd:0x5fb2da53c5ebbcf9!8m2!3d-7.8827996!4d110.3329082!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSS1h6ZE1OMHQzRUFF4AEA-gEECAAQQw!16s%2Fg%2F11fy54qxx4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2201,25 +2150,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.9</v>
+        <v>-7.88461</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.88461</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.330539</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Darussallam/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff48241c5485:0x6f04b3fc82ca94ab!8m2!3d-7.8846096!4d110.3305388!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWE9TMVVkVmhuRUFF4AEA-gEECAAQQw!16s%2Fg%2F11hzslnjw7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Darussallam/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff48241c5485:0x6f04b3fc82ca94ab!8m2!3d-7.8846096!4d110.3305388!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWE9TMVVkVmhuRUFF4AEA-gEECAAQQw!16s%2Fg%2F11hzslnjw7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2238,25 +2186,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>-7.879552</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.879552</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.331992</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%84%EA%A6%92%EA%A6%B8%EA%A6%81%EA%A6%A7%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a577ca9220911:0x54cbcbfa1029fada!8m2!3d-7.8795519!4d110.3319922!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMk5HTlVWMUJSRUFF4AEA-gEECGEQMA!16s%2Fg%2F11sj5zs2hc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%84%EA%A6%92%EA%A6%B8%EA%A6%81%EA%A6%A7%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a577ca9220911:0x54cbcbfa1029fada!8m2!3d-7.8795519!4d110.3319922!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMk5HTlVWMUJSRUFF4AEA-gEECGEQMA!16s%2Fg%2F11sj5zs2hc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2275,25 +2222,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.3</v>
+        <v>-7.865849</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.865849</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.335544</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5621e5ef68cd:0x73de39571d704576!8m2!3d-7.8658492!4d110.3355439!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzxc4kqz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5621e5ef68cd:0x73de39571d704576!8m2!3d-7.8658492!4d110.3355439!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzxc4kqz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2312,25 +2258,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.7</v>
+        <v>-7.871697</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.871697</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.316324</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Islam/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8b906bcbee9:0xf10423c5cfd763c8!8m2!3d-7.8716971!4d110.3163241!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzsc18bl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Islam/@-7.8799607,110.2546189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8b906bcbee9:0xf10423c5cfd763c8!8m2!3d-7.8716971!4d110.3163241!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzsc18bl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2349,25 +2294,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.7</v>
+        <v>-7.906662</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.906662</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.418578</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Ikhlas/@-7.9066625,110.3464803,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a54709fc2ff03:0x86eadd7b41caa974!8m2!3d-7.9066625!4d110.4185781!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11b7lf2sx9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Ikhlas/@-7.9066625,110.3464803,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a54709fc2ff03:0x86eadd7b41caa974!8m2!3d-7.9066625!4d110.4185781!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11b7lf2sx9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2386,25 +2330,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.7</v>
+        <v>-7.890586</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.890586</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.316865</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Jannatul+Ma'wa/@-7.8905863,110.2447668,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff4c2a8056d3:0x764cb46daf904b15!8m2!3d-7.8905863!4d110.3168646!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVWRrd3ROVWwzRUFF4AEA-gEECAAQJQ!16s%2Fg%2F11jt519pjd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Jannatul+Ma'wa/@-7.8905863,110.2447668,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff4c2a8056d3:0x764cb46daf904b15!8m2!3d-7.8905863!4d110.3168646!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVWRrd3ROVWwzRUFF4AEA-gEECAAQJQ!16s%2Fg%2F11jt519pjd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2423,25 +2366,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.7</v>
+        <v>-7.87194</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.87194</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.3231</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Musholla+Al-Ghoffar+Kopen/@-7.8905863,110.2447668,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af98fd67a39dd:0x735a2fae4fe785ce!8m2!3d-7.8719402!4d110.3230996!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSR2JUWlBXblIzUlJBQuABAPoBBAgAEB4!16s%2Fg%2F11h2g3v6_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Musholla+Al-Ghoffar+Kopen/@-7.8905863,110.2447668,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af98fd67a39dd:0x735a2fae4fe785ce!8m2!3d-7.8719402!4d110.3230996!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSR2JUWlBXblIzUlJBQuABAPoBBAgAEB4!16s%2Fg%2F11h2g3v6_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2461,22 +2403,21 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>-7.882304</v>
+      </c>
       <c r="G55" t="n">
-        <v>-7.882304</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.319633</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Al+Bajuri/@-7.8905863,110.2447668,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff965b3cac2d:0x38c6b2f086c8976a!8m2!3d-7.8823041!4d110.3196325!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11q955h7kv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2491,25 +2432,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.8</v>
+        <v>-7.877975</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.877975</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.333955</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sam+Sumiyati/@-7.8905863,110.2447668,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a57e37ad6318f:0x28597ce7c4ed0dac!8m2!3d-7.8779751!4d110.333955!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11qqyh1q3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sam+Sumiyati/@-7.8905863,110.2447668,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a57e37ad6318f:0x28597ce7c4ed0dac!8m2!3d-7.8779751!4d110.333955!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11qqyh1q3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2529,22 +2469,21 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>-7.884905</v>
+      </c>
       <c r="G57" t="n">
-        <v>-7.884905</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.333456</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Majelis+Taklim+Malam+sabtu+%26+kamis/@-7.8905863,110.2447668,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76d37e9:0xe32806c71b6076d6!8m2!3d-7.884905!4d110.3334556!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bc7mw923?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2560,22 +2499,21 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>-7.880403</v>
+      </c>
       <c r="G58" t="n">
-        <v>-7.880403</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.325766</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+pak+Haris/@-7.8905863,110.2447668,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9e247338c75:0xbf49623238ae2976!8m2!3d-7.8804035!4d110.3257655!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11rz2mp5m9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2594,25 +2532,24 @@
           <t>0811-2651-190</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>-7.850106</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.850106</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.392817</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Kayu+Al+Fatih+(%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%8F%EA%A6%AA%EA%A6%B8%EA%A6%84%EA%A6%AD%EA%A7%80%EA%A6%A5%EA%A6%B3%EA%A6%A0%EA%A6%B6%EA%A6%83)/@-7.8501063,110.3207189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a57fd5e99153f:0x939efbfbf2e8c92a!8m2!3d-7.8501063!4d110.3928167!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObE4wODNWbU5SRUFF4AEA-gEECAAQNg!16s%2Fg%2F11sw_wc2zt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Kayu+Al+Fatih+(%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%8F%EA%A6%AA%EA%A6%B8%EA%A6%84%EA%A6%AD%EA%A7%80%EA%A6%A5%EA%A6%B3%EA%A6%A0%EA%A6%B6%EA%A6%83)/@-7.8501063,110.3207189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a57fd5e99153f:0x939efbfbf2e8c92a!8m2!3d-7.8501063!4d110.3928167!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObE4wODNWbU5SRUFF4AEA-gEECAAQNg!16s%2Fg%2F11sw_wc2zt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2635,25 +2572,24 @@
           <t>0852-9221-1103</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.819669</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.819669</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.320681</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+Tahfidz+Al-Mahabbah/@-7.819669,110.2485835,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af91a6c8ef77b:0x40c2a80beaf20896!8m2!3d-7.819669!4d110.3206813!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2RrbDJWemhSUlJBQuABAPoBBAgAECU!16s%2Fg%2F11k4_d0070?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2668,25 +2604,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>1.5</v>
+      </c>
       <c r="F61" t="n">
-        <v>1.5</v>
+        <v>-7.891869</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.891869</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.327192</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Musholla+Spbu+Ringin+Harjo/@-7.891869,110.2550942,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff59c8717457:0xa9996c2601bc6470!8m2!3d-7.891869!4d110.327192!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F1pzpkw51h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Musholla+Spbu+Ringin+Harjo/@-7.891869,110.2550942,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff59c8717457:0xa9996c2601bc6470!8m2!3d-7.891869!4d110.327192!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F1pzpkw51h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2709,25 +2644,24 @@
           <t>0811-2651-190</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>-7.850106</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.850106</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.392817</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Kayu+Al+Fatih+(%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%8F%EA%A6%AA%EA%A6%B8%EA%A6%84%EA%A6%AD%EA%A7%80%EA%A6%A5%EA%A6%B3%EA%A6%A0%EA%A6%B6%EA%A6%83)/@-7.8501063,110.3207189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a57fd5e99153f:0x939efbfbf2e8c92a!8m2!3d-7.8501063!4d110.3928167!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObE4wODNWbU5SRUFF4AEA-gEECAAQNg!16s%2Fg%2F11sw_wc2zt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Kayu+Al+Fatih+(%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80%EA%A6%8F%EA%A6%AA%EA%A6%B8%EA%A6%84%EA%A6%AD%EA%A7%80%EA%A6%A5%EA%A6%B3%EA%A6%A0%EA%A6%B6%EA%A6%83)/@-7.8501063,110.3207189,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a57fd5e99153f:0x939efbfbf2e8c92a!8m2!3d-7.8501063!4d110.3928167!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObE4wODNWbU5SRUFF4AEA-gEECAAQNg!16s%2Fg%2F11sw_wc2zt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2750,25 +2684,24 @@
           <t>0852-9221-1103</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>-7.819669</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.819669</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.320681</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Tahfidz+Al-Mahabbah/@-7.819669,110.2485835,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af91a6c8ef77b:0x40c2a80beaf20896!8m2!3d-7.819669!4d110.3206813!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2RrbDJWemhSUlJBQuABAPoBBAgAECU!16s%2Fg%2F11k4_d0070?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Tahfidz+Al-Mahabbah/@-7.819669,110.2485835,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af91a6c8ef77b:0x40c2a80beaf20896!8m2!3d-7.819669!4d110.3206813!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2RrbDJWemhSUlJBQuABAPoBBAgAECU!16s%2Fg%2F11k4_d0070?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2787,25 +2720,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>1.5</v>
+      </c>
       <c r="F64" t="n">
-        <v>1.5</v>
+        <v>-7.891869</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.891869</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.327192</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Musholla+Spbu+Ringin+Harjo/@-7.891869,110.2550942,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff59c8717457:0xa9996c2601bc6470!8m2!3d-7.891869!4d110.327192!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F1pzpkw51h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Musholla+Spbu+Ringin+Harjo/@-7.891869,110.2550942,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff59c8717457:0xa9996c2601bc6470!8m2!3d-7.891869!4d110.327192!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F1pzpkw51h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2824,25 +2756,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.8</v>
+        <v>-7.8797</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.8797</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.336556</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al+Wahdah+dan+Taman+Tahfidz+Anak/@-7.891869,110.2550942,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a57c3b1e6c39b:0xb52af418ba3d1937!8m2!3d-7.8797005!4d110.3365564!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOd2VsQlhhMjVSUlJBQuABAPoBBAgAECI!16s%2Fg%2F11f7741lhk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2857,25 +2788,24 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.6</v>
+        <v>-7.861162</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.861162</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.327558</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Al+Mubtadiien+1/@-7.891869,110.2550942,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8a1b5cd690f:0x699519c642142c52!8m2!3d-7.8611618!4d110.3275584!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGNWOVFYM1JuUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11cs2gy3r4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Al+Mubtadiien+1/@-7.891869,110.2550942,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8a1b5cd690f:0x699519c642142c52!8m2!3d-7.8611618!4d110.3275584!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGNWOVFYM1JuUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11cs2gy3r4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2894,25 +2824,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.4</v>
+        <v>-7.883662</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.883662</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.340953</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Niten/@-7.891869,110.2550942,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fc937e6691:0xcb631055e2984fb8!8m2!3d-7.8836625!4d110.3409531!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11cjj002tp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Niten/@-7.891869,110.2550942,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fc937e6691:0xcb631055e2984fb8!8m2!3d-7.8836625!4d110.3409531!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11cjj002tp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2931,25 +2860,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.8</v>
+        <v>-7.867808</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.867808</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.387534</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Mi'rojul+Muttaqinalloh/@-7.8678077,110.3154364,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5685762dd591:0x330547678226de8!8m2!3d-7.8678077!4d110.3875342!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOd09GOHpTRkIzRUFF4AEA-gEECAAQLg!16s%2Fg%2F11byl3dy_r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Mi'rojul+Muttaqinalloh/@-7.8678077,110.3154364,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5685762dd591:0x330547678226de8!8m2!3d-7.8678077!4d110.3875342!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOd09GOHpTRkIzRUFF4AEA-gEECAAQLg!16s%2Fg%2F11byl3dy_r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2968,25 +2896,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.9</v>
+        <v>-7.884604</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.884604</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.334102</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Ihsan/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76d37e9:0xdf1d8bdedb5c4cb8!8m2!3d-7.8846043!4d110.334102!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11bc7sbmr_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Ihsan/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76d37e9:0xdf1d8bdedb5c4cb8!8m2!3d-7.8846043!4d110.334102!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11bc7sbmr_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3005,25 +2932,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.7</v>
+        <v>-7.86332</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.86332</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.331738</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Istiqomah/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a561fcc347e27:0xd0a0b8a28e2f166!8m2!3d-7.8633204!4d110.3317381!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTWRHUmhaRlIzRUFF4AEA-gEECAAQSQ!16s%2Fg%2F1pzq26qdr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3038,25 +2964,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>-7.892774</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.892774</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.336513</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+layanan+haji+dan+umrah+kabupaten+bantul/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a559ece1c7749:0x83b1d2c4b4921ef!8m2!3d-7.892774!4d110.3365134!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBFXJlbGlnaW91c19kZXN0aW5hdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSVWVVeEhibGhuRUFF4AEA-gEECCQQMQ!16s%2Fg%2F11llgclbzz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+layanan+haji+dan+umrah+kabupaten+bantul/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a559ece1c7749:0x83b1d2c4b4921ef!8m2!3d-7.892774!4d110.3365134!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBFXJlbGlnaW91c19kZXN0aW5hdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSVWVVeEhibGhuRUFF4AEA-gEECCQQMQ!16s%2Fg%2F11llgclbzz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3075,25 +3000,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.5</v>
+        <v>-7.887712</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.887712</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.330769</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-+Istiqomah/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff562a439335:0x32a52089be480441!8m2!3d-7.887712!4d110.330769!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRM2R6VlhlSEIzUlJBQuABAPoBBAgAECY!16s%2Fg%2F11b6nl4_ns?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-+Istiqomah/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff562a439335:0x32a52089be480441!8m2!3d-7.887712!4d110.330769!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRM2R6VlhlSEIzUlJBQuABAPoBBAgAECY!16s%2Fg%2F11b6nl4_ns?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3113,22 +3037,21 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>-7.884604</v>
+      </c>
       <c r="G73" t="n">
-        <v>-7.884604</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.334102</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Majelis+Taklim+Malam+Jum%E2%80%99at/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76d37e9:0x27c09117407a8c11!8m2!3d-7.8846043!4d110.334102!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bc7sgktq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3143,25 +3066,24 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>-7.884611</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.884611</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.334111</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Ainun+Jariyah/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76c8c8b:0xfd1ab7f0f2815bb0!8m2!3d-7.8846111!4d110.3341111!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzwbg9r1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Ainun+Jariyah/@-7.8846043,110.2620042,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76c8c8b:0xfd1ab7f0f2815bb0!8m2!3d-7.8846111!4d110.3341111!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzwbg9r1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3180,25 +3102,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>-7.897298</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.897298</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.388131</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Baiturrahman/@-7.897298,110.3160332,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a54376d941891:0x1cc8dc5fc8fc8164!8m2!3d-7.897298!4d110.388131!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOb09XRnFRMmxuUlJBQuABAPoBBAgAEB4!16s%2Fg%2F1pzxjjft0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Baiturrahman/@-7.897298,110.3160332,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a54376d941891:0x1cc8dc5fc8fc8164!8m2!3d-7.897298!4d110.388131!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOb09XRnFRMmxuUlJBQuABAPoBBAgAEB4!16s%2Fg%2F1pzxjjft0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3217,25 +3138,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.2</v>
+        <v>-7.879977</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.879977</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.332969</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Masjid+Agung+Manunggal+Bantul/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5730bf0adf43:0x1704fc3fc77cbe25!8m2!3d-7.879977!4d110.3329686!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWVqWXlkbnBSUlJBQuABAPoBBQiJAhA4!16s%2Fg%2F11fl098rqg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Masjid+Agung+Manunggal+Bantul/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a5730bf0adf43:0x1704fc3fc77cbe25!8m2!3d-7.879977!4d110.3329686!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWVqWXlkbnBSUlJBQuABAPoBBQiJAhA4!16s%2Fg%2F11fl098rqg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3254,25 +3174,24 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>-7.861609</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.861609</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.328186</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam+Syekh+Damanhuri+Maghribi+%26+Pangeran+Adinegoro/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9768d3a1e03:0x9a99a111660e36f!8m2!3d-7.8616095!4d110.328186!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBFXJlbGlnaW91c19kZXN0aW5hdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNemEzVTNMVXRSRUFF4AEA-gEECAAQKw!16s%2Fg%2F11rvc0h4s0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam+Syekh+Damanhuri+Maghribi+%26+Pangeran+Adinegoro/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9768d3a1e03:0x9a99a111660e36f!8m2!3d-7.8616095!4d110.328186!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBFXJlbGlnaW91c19kZXN0aW5hdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNemEzVTNMVXRSRUFF4AEA-gEECAAQKw!16s%2Fg%2F11rvc0h4s0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3291,25 +3210,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.8</v>
+        <v>-7.842705</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.842705</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.332296</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Aziz/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a562a6ab8c03f:0xe797943585e05ba0!8m2!3d-7.8427053!4d110.3322957!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOd0xXRnVMVmxCRUFF4AEA-gEECAAQPA!16s%2Fg%2F11b6p5h5zz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Aziz/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a562a6ab8c03f:0xe797943585e05ba0!8m2!3d-7.8427053!4d110.3322957!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOd0xXRnVMVmxCRUFF4AEA-gEECAAQPA!16s%2Fg%2F11b6p5h5zz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3328,25 +3246,24 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.5</v>
+        <v>-7.886726</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.886726</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.326629</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nahdlatul+Ulama/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7affeccbd685a7:0xe4428d3958ae793d!8m2!3d-7.8867257!4d110.3266291!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11j1vqm943?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nahdlatul+Ulama/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7affeccbd685a7:0xe4428d3958ae793d!8m2!3d-7.8867257!4d110.3266291!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F11j1vqm943?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3365,25 +3282,24 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.6</v>
+        <v>-7.876901</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.876901</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.326822</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Musthofa/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8abb895698b:0xe35a5cf38d41bfd1!8m2!3d-7.8769007!4d110.3268223!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeVoySXRZMGRSRUFF4AEA-gEECAAQFA!16s%2Fg%2F11c6cbd0d4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Musthofa/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8abb895698b:0xe35a5cf38d41bfd1!8m2!3d-7.8769007!4d110.3268223!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeVoySXRZMGRSRUFF4AEA-gEECAAQFA!16s%2Fg%2F11c6cbd0d4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3403,22 +3319,21 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>-7.87332</v>
+      </c>
       <c r="G81" t="n">
-        <v>-7.87332</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.32474</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/mushola+kersen/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af95161ca0133:0x955840256b44f4e1!8m2!3d-7.8733202!4d110.3247399!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11vllx54s2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3433,25 +3348,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.7</v>
+        <v>-7.898152</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.898152</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.359456</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Al+Ikhlas/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55c0bf407bab:0xa9e3166f1915127c!8m2!3d-7.8981524!4d110.3594557!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNNWRtOWZUVzVuUlJBQuABAPoBBAgAEBc!16s%2Fg%2F11dx92sz0f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Al+Ikhlas/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55c0bf407bab:0xa9e3166f1915127c!8m2!3d-7.8981524!4d110.3594557!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNNWRtOWZUVzVuUlJBQuABAPoBBAgAEBc!16s%2Fg%2F11dx92sz0f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -3470,25 +3384,24 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>5</v>
+      </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>-7.897568</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.897568</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.340094</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+As-Samawi+Rumah+Dinas+Bupati+Bantul/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f255cd31bf:0xa0a773a04e9a2109!8m2!3d-7.8975685!4d110.3400942!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBB211c2FsbGHgAQA!16s%2Fg%2F11gdlyy7r7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+As-Samawi+Rumah+Dinas+Bupati+Bantul/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f255cd31bf:0xa0a773a04e9a2109!8m2!3d-7.8975685!4d110.3400942!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBB211c2FsbGHgAQA!16s%2Fg%2F11gdlyy7r7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3508,22 +3421,21 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>-7.874815</v>
+      </c>
       <c r="G84" t="n">
-        <v>-7.874815</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.325513</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+As+salam/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9d7332544eb:0x16f1259d19192949!8m2!3d-7.8748148!4d110.3255132!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11h1lv185q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3538,25 +3450,24 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>-7.884542</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.884542</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.334126</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushalla+Al-Muhtadin/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed9ddc491:0xdcb65d0f15916355!8m2!3d-7.8845421!4d110.334126!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzyfn3z0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushalla+Al-Muhtadin/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed9ddc491:0xdcb65d0f15916355!8m2!3d-7.8845421!4d110.334126!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzyfn3z0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3575,25 +3486,24 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.5</v>
+        <v>-7.886227</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.886227</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.331721</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+An+Nur/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f8bb591091:0x43ade1b920c85aa!8m2!3d-7.8862273!4d110.3317213!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWWVYSnFVV1JSRUFF4AEA-gEECAAQJw!16s%2Fg%2F11d_8gccpn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+An+Nur/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55f8bb591091:0x43ade1b920c85aa!8m2!3d-7.8862273!4d110.3317213!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWWVYSnFVV1JSRUFF4AEA-gEECAAQJw!16s%2Fg%2F11d_8gccpn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3613,22 +3523,21 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>-7.884604</v>
+      </c>
       <c r="G87" t="n">
-        <v>-7.884604</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.334102</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Nur+Salam/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed76d37e9:0x6eb6880f0170c53c!8m2!3d-7.8846043!4d110.334102!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11bc7skz2_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3644,22 +3553,21 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>-7.865897</v>
+      </c>
       <c r="G88" t="n">
-        <v>-7.865897</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.322449</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+Syuhada/@-7.879977,110.2608708,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af90013b0facd:0x75b91ee0231eb318!8m2!3d-7.8658973!4d110.3224493!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBEHBsYWNlX29mX3dvcnNoaXDgAQA!16s%2Fg%2F11y2mq0jcp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3674,25 +3582,24 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.5</v>
+        <v>-7.902663</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.902663</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.417027</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al+Huda/@-7.9026634,110.3449294,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a54652b23f155:0x3ea5cb2b833fad5!8m2!3d-7.9026634!4d110.4170272!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGFqVk1WMWxuRUFF4AEA-gEECAAQDw!16s%2Fg%2F1pzv74n3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3707,25 +3614,24 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.7</v>
+        <v>-7.880011</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.880011</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.320943</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Alhidayah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9b8a995b951:0x4edb164a9c82f52!8m2!3d-7.8800106!4d110.3209432!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMk0zRnVVa1ZSRUFF4AEA-gEECAAQDw!16s%2Fg%2F11p0w83v31?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Alhidayah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9b8a995b951:0x4edb164a9c82f52!8m2!3d-7.8800106!4d110.3209432!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMk0zRnVVa1ZSRUFF4AEA-gEECAAQDw!16s%2Fg%2F11p0w83v31?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3744,25 +3650,24 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.2</v>
+        <v>-7.869303</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.869303</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.32836</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Hidayah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8a7ce1ad39d:0x271009b72361f757!8m2!3d-7.8693029!4d110.3283599!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSWNqaFRTbkpuUlJBQuABAPoBBAgAEBI!16s%2Fg%2F11g9vp7x23?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Hidayah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af8a7ce1ad39d:0x271009b72361f757!8m2!3d-7.8693029!4d110.3283599!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSWNqaFRTbkpuUlJBQuABAPoBBAgAEBI!16s%2Fg%2F11g9vp7x23?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3781,25 +3686,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.7</v>
+        <v>-7.871217</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.871217</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.325278</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Amiin+Kaligawe/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9811273d353:0x729fdf98d2f3a0bf!8m2!3d-7.8712165!4d110.3252777!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU2FqUnBVekZuUlJBQuABAPoBBAgAECk!16s%2Fg%2F11fj_6qntm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Amiin+Kaligawe/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7af9811273d353:0x729fdf98d2f3a0bf!8m2!3d-7.8712165!4d110.3252777!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU2FqUnBVekZuUlJBQuABAPoBBAgAECk!16s%2Fg%2F11fj_6qntm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3818,25 +3722,24 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>-7.884568</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.884568</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.334116</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushalla+Al-Ikhlas/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed7642a11:0x290e6143500eb220!8m2!3d-7.884568!4d110.334116!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzs42502?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushalla+Al-Ikhlas/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed7642a11:0x290e6143500eb220!8m2!3d-7.884568!4d110.334116!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzs42502?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -3855,25 +3758,24 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F94" t="n">
-        <v>3.6</v>
+        <v>-7.882355</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.882355</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.332109</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Al-Hadi/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55cb2a448a9b:0xb1a9877f6333a1f0!8m2!3d-7.8823552!4d110.3321091!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSamNIRnBXSFZCUlJBQuABAPoBBAgAEDA!16s%2Fg%2F11j300rq6c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Al-Hadi/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55cb2a448a9b:0xb1a9877f6333a1f0!8m2!3d-7.8823552!4d110.3321091!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSamNIRnBXSFZCUlJBQuABAPoBBAgAEDA!16s%2Fg%2F11j300rq6c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -3892,25 +3794,24 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>-7.884542</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.884542</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.334126</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushalla+Nur+Jannah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed9ddc491:0xbf6873c0fa2acf82!8m2!3d-7.8845421!4d110.334126!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzygy2yt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushalla+Nur+Jannah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed9ddc491:0xbf6873c0fa2acf82!8m2!3d-7.8845421!4d110.334126!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzygy2yt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -3929,25 +3830,24 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>-7.884542</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.884542</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.334126</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushalla+Nur+Jannah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed9ddc491:0xbf6873c0fa2acf82!8m2!3d-7.8845421!4d110.334126!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzygy2yt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3962,25 +3862,24 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
       <c r="F97" t="n">
-        <v>5</v>
+        <v>-7.885511</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.885511</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.330459</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Jabal+Rohmah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff5606d87dfb:0x16a77f3fc886c987!8m2!3d-7.8855108!4d110.3304592!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWMySXRaMnRuUlJBQuABAPoBBAgAEA0!16s%2Fg%2F1pzpvpq0k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Jabal+Rohmah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7aff5606d87dfb:0x16a77f3fc886c987!8m2!3d-7.8855108!4d110.3304592!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bFoWIhR0ZW1wYXQgaWJhZGFoIGJhbnR1bJIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWMySXRaMnRuUlJBQuABAPoBBAgAEA0!16s%2Fg%2F1pzpvpq0k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
